--- a/PizzaShop3tierProject-main/PizzaShop3tierProject/wwwroot/templates/OrderTemplate.xlsx
+++ b/PizzaShop3tierProject-main/PizzaShop3tierProject/wwwroot/templates/OrderTemplate.xlsx
@@ -286,16 +286,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>145800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>491760</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>402120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -308,8 +308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9365040" y="190440"/>
-          <a:ext cx="1103040" cy="934200"/>
+          <a:off x="8899200" y="295200"/>
+          <a:ext cx="3313800" cy="790200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -507,7 +507,7 @@
   <dimension ref="A2:P11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,11 +659,12 @@
       <c r="P11" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="H2:I3"/>
     <mergeCell ref="J2:M3"/>
+    <mergeCell ref="N2:S7"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:F6"/>
     <mergeCell ref="H5:I6"/>
